--- a/fhir/ig/hpd/StructureDefinition-PrestadorProfesionalMinsal.xlsx
+++ b/fhir/ig/hpd/StructureDefinition-PrestadorProfesionalMinsal.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/StructureDefinition/PrestadorProfesionalMinsal</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/PrestadorProfesionalMinsal</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Chile</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
@@ -344,7 +344,7 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/core/StructureDefinition/SexoNacimiento820}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/SexoNacimiento820}
 </t>
   </si>
   <si>
@@ -545,7 +545,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/ValueSet/VSTipoIdentificadorDEIS</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/ValueSet/VSTipoIdentificadorDEIS</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1660,7 +1660,7 @@
     <t>mencion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/fhir/core/StructureDefinition/Mencion}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/Mencion}
 </t>
   </si>
   <si>
@@ -1763,7 +1763,7 @@
     <t>Practitioner.qualification:Cert.code</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/ValueSet/VSTituloProf</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/ValueSet/VSTituloProf</t>
   </si>
   <si>
     <t>Practitioner.qualification:Cert.code.id</t>
@@ -2376,7 +2376,7 @@
     <t>Practitioner.qualification:EspOdo.code</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/ValueSet/VSEspecialidadOdonto</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/ValueSet/VSEspecialidadOdonto</t>
   </si>
   <si>
     <t>Practitioner.qualification:EspOdo.period</t>
@@ -2463,7 +2463,7 @@
     <t>Practitioner.qualification:EspBioQ.code</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/ValueSet/VSEspecialidadBioquim</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/ValueSet/VSEspecialidadBioquim</t>
   </si>
   <si>
     <t>Practitioner.qualification:EspBioQ.period</t>
@@ -2520,7 +2520,7 @@
     <t>Practitioner.qualification:EspFarma.code</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core/ValueSet/VSEspecialidadFarma</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/snre/ValueSet/VSEspecialidadFarma</t>
   </si>
   <si>
     <t>Practitioner.qualification:EspFarma.period</t>
@@ -2920,7 +2920,7 @@
     <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.37890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2935,7 +2935,7 @@
     <col min="23" max="23" width="9.16015625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.17578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.13671875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="225.41796875" customWidth="true" bestFit="true"/>
